--- a/qaLegend/src/test/resources/DataFile.xlsx
+++ b/qaLegend/src/test/resources/DataFile.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\eclipse-workspace\qaLegend\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\git\Selenium_Learning\qaLegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC08207-83E1-4455-A8F6-DDC3304C4AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9872228-A225-4747-B0E2-54BEC2AEA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
     <sheet name="ResetScreen" sheetId="2" r:id="rId2"/>
+    <sheet name="AddUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Varghese</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -428,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E0192D-27C6-437F-895A-7C88E624FB34}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -470,4 +483,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7231BB-2C00-4689-9D0F-E53EF637634E}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qaLegend/src/test/resources/DataFile.xlsx
+++ b/qaLegend/src/test/resources/DataFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\git\Selenium_Learning\qaLegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9872228-A225-4747-B0E2-54BEC2AEA737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFADF64D-EC02-4E72-A139-A3809F6AA075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
     <sheet name="ResetScreen" sheetId="2" r:id="rId2"/>
     <sheet name="AddUser" sheetId="3" r:id="rId3"/>
+    <sheet name="UploadScreen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>admin</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>File imported successfully</t>
+  </si>
+  <si>
+    <t>User added Successfully</t>
   </si>
 </sst>
 </file>
@@ -110,9 +117,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,7 +406,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7231BB-2C00-4689-9D0F-E53EF637634E}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +540,32 @@
         <v>50</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D57792-9123-4AA1-9ABE-82D95145A1E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qaLegend/src/test/resources/DataFile.xlsx
+++ b/qaLegend/src/test/resources/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\git\Selenium_Learning\qaLegend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFADF64D-EC02-4E72-A139-A3809F6AA075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692F3E8-12CD-475E-B126-48F761ECA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>admin</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>User added Successfully</t>
+  </si>
+  <si>
+    <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,10 +405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +440,11 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7231BB-2C00-4689-9D0F-E53EF637634E}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +548,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
